--- a/backend/app/p3_with_openers.xlsx
+++ b/backend/app/p3_with_openers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT20"/>
+  <dimension ref="A1:AV20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,6 +661,16 @@
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
+          <t>Recent News</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Funding News</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
           <t>Personalized Opener</t>
         </is>
       </c>
@@ -803,7 +813,17 @@
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>As Vice President of UK Sovereign Cloud at SAP, you're likely navigating lengthy enterprise sales cycles that delay revenue from your specialized cloud solutions.</t>
+          <t>Winshuttle is Now Precisely | SAP Process Automation - Precisely (Wed, 23 Jul 2025 19:28:57 GMT) https://news.google.com/rss/articles/CBMie0FVX3lxTE5PYW5FeHVWN3ZSNzdxeWpnUjN0TjU3UURad0xOeGVTQjVhZHVTYjNwSnBRNWFpZ0ROYWpLOElTOEtjYnNzbGJ2MGJjQkFZMEJ5c3pZdFZXZUZKSWtOeFl3a0RfT2hfTUlrd3Raa2U5YlFMdEFvd1ZFWjNwaw?oc=5</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>No Companies House record found for Sap (Uk) Ltd.</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>Given your focus on UK Sovereign Cloud, you're likely navigating complex enterprise sales cycles where securing qualified technical buy-in is critical.</t>
         </is>
       </c>
     </row>
@@ -993,7 +1013,17 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>Scaling a cruise booking app like My Kind of Cruise means your co-founder role constantly balances driving user acquisition with converting those leads into booked itineraries.</t>
+          <t>7 ways to save money when booking a luxury cruise - MoneyWeek (Tue, 20 May 2025 07:00:00 GMT) https://news.google.com/rss/articles/CBMihAFBVV95cUxOdnpQbUFxNGpHX0laWGliU1d1aHE2eFRVc1dfS1ZTUlNGanlYOEZVbk1Gem1vcTB4V0txYkFqbXU0NXkwb2oyUmMteExhcVAwYWJJRHVRd0J2YjdISDZVelJPNXVmS1ZSWHJFMmxfc1J1QlNyQTRHcldUSHFsVDNiX1hMZEI?oc=5</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>No Companies House record found for My Kind of Cruise.</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>With your cruise booking app handling everything from discovery to booking, you're likely focused on converting high-intent app users into confirmed passengers at scale.</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1191,17 @@
       <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>Dutch Digital Systems' focus on complex insurance software sales suggests your product ownership involves long cycles educating high-value enterprise clients.</t>
+          <t>Netherlands Set to Join Canada, US, Brazil, UK, Japan, Thailand and More in Revolutionizing Travel Visa Process with New Digital System, Effective This August - Travel And Tour World (Thu, 31 Jul 2025 07:00:00 GMT) https://news.google.com/rss/articles/CBMiqAJBVV95cUxQZ0pqUUlxSVpEcU1felRyWWhwU3RfOFRNcXU2cmpVc1Y1VU5lVjAtRkh6cHVYTnFJX3NMQV9rSVVGMDQ3WDBUMTFMX3drVUdYdDVxekZ4czc0QzJlWFJidnA4cDVnZ1pHUDdBVWZVTGtJSk12aGdDX25EOVFacDFRd2FJR1hWaUJtX2wtcFZUUk1OVVF6bzBKOHBRS1g0TGQzU3dJaF85MFZETFl5dkxZelNGZ2x4cnZnZXkzR241WmlKOU1FN3ozV0M2RW9ndnFtZUE2WkNVRjdYZGRYS3EwLTR2bXNwZ3R4MjNVTnZaRmpLRW1md0xIZHQyLThfMTlXTUVkUTdHN0YwcHJjYjcyNDZvakktZk1sVmplMWVvSE12WlR0ZWo4MA?oc=5</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>No Companies House record found for Dutch Digital Systems.</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>Your integrated insurance software suite solves complex data challenges, yet demonstrating its full value to enterprise buyers likely requires multiple lengthy consultations.</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1367,17 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>3S Knowledge's work in functional safety consulting means your managing partner role requires consistently generating high-quality leads in a niche, high-value market.</t>
+          <t>Google’s great clarity cleanup: 3 shifts redefining the Knowledge Graph and its AI future - Search Engine Land (Mon, 18 Aug 2025 07:00:00 GMT) https://news.google.com/rss/articles/CBMilAFBVV95cUxOV3RsaWFLamlfNnRLUHI3NU1xeThTQktaNlJ2TTZkNnRhZ1dJaHl5NEh0dDRtbXJ2NjZRMmtaUlR2YnczUEl6Z1R4eDVFTGluTGlvN2RfNTFHeHg4UWJIVWI5UzRySWNTR2lWOV9XZGNkcU5QbHZxclgzLVMzR1ZQY3l2QzZyM1NjUTBiYlI5cFhDR1R6?oc=5</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>No Companies House record found for 3S Knowledge.</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>As a Managing Partner in functional safety consultancy, you're likely balancing complex, long-cycle client projects with the need for a consistent new business pipeline.</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1549,17 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>Running a performance marketing agency like Boost, you're likely generating ample leads but now need higher-quality appointments that convert into retained clients.</t>
+          <t>How Business Loans Can Boost Your Sales During Dussehra Season - Mint (Fri, 19 Sep 2025 05:21:43 GMT) https://news.google.com/rss/articles/CBMiswFBVV95cUxQbGZGNmN0WVRCRDFFMWN6N0xtTkhwbzVjUGd6Z2d5YVRHSkFQLVFTMDNfc3JNUGl4Tk5IR29OYnd2UTFrZGZGdWlnMjRvZ3JBNU9TZU4wLXdsdWpmeUZiVTdlMkhYNmtyZlRDZy1jV1hfOGh3ZE9kWGdrazQ3RERUSF9JcDJJZ25WN2xsUE9hRGdPUEl4cnRjaUdtTTAtVUFDTng4MlRHQ05XZVAtM3ZvQzVvcw?oc=5</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>No Companies House record found for Boost Marketing.</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>Running a performance marketing agency, you're constantly optimizing client acquisition costs while also needing to generate your own high-quality leads.</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1743,17 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>Zucchetti UK's complex POS solutions for corporate hospitality mean your product ownership likely involves lengthy, multi-stakeholder enterprise sales cycles.</t>
+          <t>Royal Ballet: Anemoi/The Cellist review at Royal Opera House, London by Valentino Zucchetti and Cathy Marston - The Stage (Mon, 23 Oct 2023 07:00:00 GMT) https://news.google.com/rss/articles/CBMihgJBVV95cUxOZHRmZkRpQXVZR2N2Y29tQkc2bXI2Y091RkFXcW9Ua0VwaTVBQTVJQlFyODcyem95ZEJLWjItcmJDMkpfMUZJc0M2WlF0TTEwbEpYdjdNZnJ2ZXhXazZfLW5SOHlfSDU5OFBWY3pFX1BmWUJsTktKOGNHZFBfcnRSVkdQb2NrdDRRQzEzSWFxcjRwZE9zaFJ5Z19NVkNhbU82MXJCNzlPVl93R0pOM3RncVhaM0E3MUpUeUlXREljUllybU5HcFBqVGxWc1k5YTJMczJWbldhanNSa1VpbU9yTG1TemZPbGdSWlFlWGpYR3M0SnFlSnFlWjEzTEdOZHpoZHhRck9R?oc=5</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>No Companies House record found for Zucchetti UK Ltd.</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>Your cloud-based POS solutions for high-volume venues must demonstrate seamless integration capabilities, a complex sale that requires reaching multiple technical stakeholders.</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1897,17 @@
       <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>Magentic's AI platform for supply chains means your co-founder role involves breaking through noise to secure meetings with skeptical manufacturing executives.</t>
+          <t>Magentic-One: A Generalist Multi-Agent System for Solving Complex Tasks - Microsoft (Mon, 04 Nov 2024 08:00:00 GMT) https://news.google.com/rss/articles/CBMivgFBVV95cUxPSndWYXRZdEV6WmRMc1o4QnVGSG5PNHpZMDZjSjlIWXgwc3BlRXhKMzJpeXd2dlpJa0gtcTJmRDlKNDAydFRlVVdjd2prdWVtUVcwLUF0dVpFRzBoYzhFREhCaXRiYmlpcmh5cXpEUnM0M2NVS0hkT2gyUGdUbnBIVFNpRVMyQWdIOGxRa1JMck1JRm9PZlRDSEF2WjRJZmM1WkUxSmxsWkQ4MXdyMlhMT0h1N3YtQmZOamZXcTdn?oc=5</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>No Companies House record found for Magentic.</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>Building an AI platform for supply chains means you're not only developing cutting-edge tech but also educating a market on a new category of solution.</t>
         </is>
       </c>
     </row>
@@ -1993,7 +2073,17 @@
       <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>Juggling Baby Chariots and web hosting, you're likely spending considerable time on outreach that doesn't convert into qualified hosting clients.</t>
+          <t>Award-winning pub owner says managers leaving 'did come as a bit of a surprise' - Colchester Gazette (Wed, 17 Sep 2025 16:00:00 GMT) https://news.google.com/rss/articles/CBMikgFBVV95cUxPR1lCRFBTVGszRWtrWU5wTmM1TU1qZHBNMkRNaEEtNHg3b0Ytb1Mzdm1ucF9FcnZmSkhrOHI1T01KSmdJX1VteGNiOXlzREI1SXNwVTRFbXUzQ2ZmbVlsZkNGcGx5STlLSUQzc0dVdGNHZS1HNzRUOGU1SzhPRjhONjhKTWF3WHlQM0FWVDV4OTJDdw?oc=5</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>No Companies House record found for Colchester.</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>Operating in the competitive web hosting space, you're likely focused on differentiating your offerings and acquiring small business customers cost-effectively.</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2277,17 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>Crypta Labs' quantum security solutions require explaining complex tech to non-technical buyers, creating a lengthy enterprise sales cycle for your CEO role.</t>
+          <t>Quantum Networking Market is expected to generate a revenue of USD 16.9 Billion by 2032, Globally, at 25.2% CAGR: Verified Market Research® - Yahoo Finance (Wed, 09 Apr 2025 07:00:00 GMT) https://news.google.com/rss/articles/CBMikwFBVV95cUxPMklNMHJLWnNhNDJuZFlXeTRpWHVzUG5TY1NWLTM2U2pfbDZmcWoxX21KWWZHYVA5RHhwSUVPTkJMelM2UUdIcUZ1SmF4WTF1bUVsYW9GOGpSaGhSNl9KcGV5LXlNY3RRaG03U3FOb3FIQzlzTDJBdVZkUmlFRTE4dVdyNGpmQ3VHNzlSQm1pWkp3VWc?oc=5</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>No Companies House record found for Crypta Labs.</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>As a CEO in quantum cybersecurity, you're commercializing deeply technical hardware for enterprises that may not yet fully understand the quantum threat.</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2449,17 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>Coded Law's integrated legal tech means your founder role involves cutting through a traditional industry's inertia to book meetings with risk-averse legal departments.</t>
+          <t>India’s BJP-ruled Uttarakhand implements ‘totally biased’ common civil code - Al Jazeera (Mon, 27 Jan 2025 08:00:00 GMT) https://news.google.com/rss/articles/CBMiswFBVV95cUxOdlNiWWpUa3F5XzNFTWpvYmFyWEljVjZ2ZzJ3SVdibGFyeGN6eEt5M1M5RGloanNkbFRvdjRUOW5sZHFWSHZNNzBhZmg2M3hrbTZvZjI3WUE2VnJ5OFZhVEw4bEh5QzJnYWJPQXlxaFN1YWxtbWF3OWY0ZzJRZ1h6aHhGZ3VjR0dkaHZyUWpKalUwTGRqY2J4Qy1JcjRMSzExd3F6R2xTVWxTN0xEZ2NaRm9uMNIBuAFBVV95cUxQVXN3QUFDQlRJM01xaTZZQ2VQbkZqTVlEUWdBRmJhX1BvTnBFSkluTHVsQmdFUVo0MW9vN2s0Qi1oeTZ4M3d0dGY5aDk0TnhKYjlwbEpla3B4REFVMkhySkJFcGlERVg4aDMwaVB2Yi1IdmcybklfSUFHY0daa0pQclNCVmhNLWF6ODlRc0VXWElFdXdEWVJEUnRGMnI4MUVUbnNnTnJ5SGNYbzZ6c0phQzVqMTFFYm42?oc=5</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>No Companies House record found for Coded Law.</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>Founding a legal tech startup, you're pioneering a new approach to commercial transactions while simultaneously educating the market and building a client base from the ground up.</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2649,17 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>As a Principal Consultant at JFDI, you're scaling complex SharePoint implementations while ensuring your own new client pipeline stays full.</t>
+          <t>No recent news found for JFDI Consulting</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>No Companies House record found for JFDI Consulting.</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>With your deep SharePoint and Microsoft 365 integrations, you're likely managing complex, project-based client outreach that's difficult to scale consistently.</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2837,17 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>Aibly's focus on no-code AI automation means you're cutting through a crowded market to reach non-technical decision-makers who need to see clear ROI.</t>
+          <t>No recent news found for Aibly</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>No Companies House record found for Aibly.</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>Building a no-code AI platform for non-technical users means your outreach must clearly demonstrate complex automation value to a broad audience.</t>
         </is>
       </c>
     </row>
@@ -2897,7 +3027,17 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>Medical Connections' deep DICOM expertise requires connecting with time-poor healthcare IT directors who value niche, compliance-critical integrations.</t>
+          <t>Strengthening Medical Connections: Malaysia Healthcare Week In Kuwait - Travel And Tour World (Wed, 17 Sep 2025 03:14:29 GMT) https://news.google.com/rss/articles/CBMiuAFBVV95cUxNNEhMNGtZN09hWEw4REZuWjV1QjE0cnc5aHVpTkFuRUpIMHlqYll2V1Y5V0pRajhNT2tJajl2T1BzNThPSUZYNHhqanRJTGczQkNwMlZHUlF6M2EtYVVHbmFkbkZxeUlXMjh0aXJ1U0czdnZERkJlRGQ0NGcxZ1hNVHFxeE1FVjdNdVAzc2JycVpWcm5NVFZHU1NJajJxY3BQZHdGbWRqWHREVnRZN0NXclFTeTM4SUM5?oc=5</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>No Companies House record found for Medical Connections Ltd.</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>Specializing in DICOM SDKs and healthcare integration suggests your sales cycle involves educating niche technical buyers on complex compliance standards.</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3199,17 @@
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>Scaling an accelerator like Aerospace Xelerated involves sifting through countless startup applications to find the few truly investable companies.</t>
+          <t>Boeing's startup accelerator spins out and broadens focus beyond aerospace - - Global Corporate Venturing (Wed, 17 Sep 2025 15:16:40 GMT) https://news.google.com/rss/articles/CBMiwAFBVV95cUxNSGFhcm0xb1BCQTlhUUwzYy1oWDIxYjZtS2kzSzI4WjdwTXJkWXdEQ1FnNWlSZ0F1cUtjVHBGaUg4bUFfMUZpQ2dHaVRTWXZ2cXhIek9mUUlURlQtRnd2a0JteFlWc280X2lfZUtwN2pMSE0zWlR3N2ZVODNrcElEVFFkUFAwQ1JNMHF0T0xqQWliUXhpbFV2Mko3ZlRxQm9oVFhWNnB6X244dXh2d2o0LUFGemJRbkxxYVRYLWVCeFU?oc=5</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>No Companies House record found for Aerospace Xelerated.</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>Running a Boeing-backed aerospace accelerator, you're constantly qualifying a high volume of startup applications to find the most viable investment opportunities.</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3391,17 @@
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>ARBREE's custom software development in a competitive market demands a consistent stream of qualified leads who see beyond just cost.</t>
+          <t>No recent news found for ARBREE LIMITED</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>No Companies House record found for ARBREE LIMITED.</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>Offering custom software like hospital management systems, you're likely qualifying leads who have vastly different technical requirements and budget constraints.</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3567,17 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>Neuron's vision for an agentic OS means you're educating the market on a new paradigm while needing to fill a high-consideration enterprise sales cycle.</t>
+          <t>Repeated head trauma causes neuron loss and inflammation in young athletes - Nature (Wed, 17 Sep 2025 15:06:20 GMT) https://news.google.com/rss/articles/CBMiX0FVX3lxTFBvd2duSUFVS2NfM1AzNmVrTG5GMEdXak54dHRLQ0JUUkMxMmhFWEs2QVYzZi1yTFNac1RtRmF2ZmJPYUpaN1Q2dXZtdUFuajlCZi1fSXlSOUktM3k1aHpV?oc=5</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>No Companies House record found for Neuron.</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>Your AI agents that handle quote management and job planning need a steady pipeline of qualified leads who understand the ROI of agentic automation.</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3737,17 @@
       <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>Volteras' API-driven energy algorithms require convincing traditional utility businesses of a new tech model, a complex and lengthy sales process.</t>
+          <t>Volteras wants to connect to more EVs than anyone else - TechCrunch (Thu, 29 May 2025 07:00:00 GMT) https://news.google.com/rss/articles/CBMikwFBVV95cUxOTGtnMjZURFh5aGNSU3VSVFEtWmpDY1ZfakhHUC03emM1dTVUN05vZzVaN1FzTVRiekZtRjN0SWo0SUpaMFVQVkJxUjFGNzNVWHFPR1M0LWZIMUZDMDI1ZURaVW1xcDFob192VFRCVHNWMGNxdmdQWGJub1lXNm9Od0JhT1hSZDlKRjUzX0cwVGZCb0k?oc=5</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>No Companies House record found for Volteras.</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>Developing proprietary algorithms for energy optimization via API means you're educating enterprise buyers on a complex, technical solution with a long sales cycle.</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3933,17 @@
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>Artian AI's enterprise multi-agent workflows face the challenge of navigating complex procurement cycles and stringent compliance committees.</t>
+          <t>Y Combinator joins AI developer Artisan’s $25m series A - Tech in Asia (Sun, 20 Apr 2025 07:00:00 GMT) https://news.google.com/rss/articles/CBMijgFBVV95cUxQQ2JHdGsycWlEVTQ2bEg0b1ViQjc1NkVPaENXZmw5TU5jZVZfMG1PZ1RiTkFkQ3o2WDN0YkdkU3hDM2oxU1hBaXhWSnFieGlRTlN0MHpNUmkzWjZOYnBZSFBpbHpPRWZrSDNQZFZUWlRocVBnWnR1VXBPakZWUE1STzRnZ0JYV1piRFRVRWhB?oc=5</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>No Companies House record found for Artian AI.</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>Your enterprise multi-agent AI platform for financial services requires connecting with technical decision-makers who grasp the governance of autonomous workflows.</t>
         </is>
       </c>
     </row>
@@ -3917,7 +4107,17 @@
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>GMR Center's push into Web3 gaming involves cutting through market skepticism to find early adopters ready for decentralized technology.</t>
+          <t>Hon'ble President of India Smt. Droupadi Murmu visits the GMRVF-run Ekta Skill Development Center in Ekta Nagar (Kevadia), Gujarat - PR Newswire (Tue, 04 Mar 2025 08:00:00 GMT) https://news.google.com/rss/articles/CBMikgJBVV95cUxPNjhTd2tjc0hIY1paWFB1S1B3YzJMeDhIekNWeEg5MkJvc0hTUUtZWnpRc0NCV1NLTWs0bWtNanZ3UFpiVzRnSXhZMjlkS0FWVlQ2MmhKWHJRc2d2ZW9kTTU5MHlHZXBBbDAzWlkxVHcxZF9KcWhDMUFLd1ZBVkpJN0JWWExSRWhwVmxuZXg5UmprVkZ0UGtuMjExYThodk1FSVVLYUxsQ0gzX0lBUHJJRXNSQ2xlcktFLWFzT1BTcDlGdmx3cWJkY2dfR3R6X2FGTk85OGZPeklvQjNYUzBiWU1yMHNGSjNKaE83dDhnTjVHVWhaYWJibjZRcnlsT3ZBSVFDYTlZRXZ6R0R3OHhfM2lB?oc=5</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>No Companies House record found for GMR Center.</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>Building cutting-edge Web3 gaming applications, you're tasked with explaining the value of decentralized tech to a mainstream audience that's still learning.</t>
         </is>
       </c>
     </row>
